--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,143 +453,143 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>AJ Green</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AJ Green</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,14 +599,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alperen Şengün</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
@@ -640,51 +640,51 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -589,7 +589,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,109 +453,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AJ Green</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,24 +565,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,65 +616,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jared McCain</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Jared McCain</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>AJ Green</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
@@ -725,34 +725,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,119 +453,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>AJ Green</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
@@ -589,58 +589,58 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jared McCain</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,58 +650,58 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AJ Green</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,255 +453,255 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJ Green</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -521,109 +521,109 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,24 +650,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -521,102 +521,102 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -640,68 +640,68 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,34 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
@@ -504,17 +504,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,31 +565,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,24 +599,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
@@ -640,41 +640,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,167 +463,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,31 +633,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,143 +463,143 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>P.J. Washington Jr.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
@@ -623,41 +623,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P.J. Washington Jr.</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,58 +453,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,167 +514,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,97 +453,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,24 +555,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,19 +582,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,24 +633,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
@@ -674,68 +674,68 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,97 +453,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,24 +555,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,19 +582,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,24 +633,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
@@ -674,68 +674,68 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -470,34 +470,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
@@ -521,75 +521,75 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Mo Bamba</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,14 +599,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,65 +616,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -708,41 +708,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,14 +463,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,82 +480,82 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,48 +565,48 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mo Bamba</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,92 +616,92 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,150 +463,150 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>
@@ -657,41 +657,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -623,24 +623,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,31 +650,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>LA Clippers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,54 +31,54 @@
     <t>Coby White</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Dalton Knecht</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Dalton Knecht</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -106,46 +106,43 @@
     <t>Chicago Bulls</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
 </sst>
 </file>
@@ -547,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -569,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -594,7 +591,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -635,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -646,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -657,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +668,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -28,30 +28,39 @@
     <t>Jalen Brunson</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Dalton Knecht</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Coby White</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Dalton Knecht</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
     <t>Moussa Diabate</t>
   </si>
   <si>
@@ -61,15 +70,6 @@
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -82,48 +82,54 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>Charlotte Hornets</t>
   </si>
   <si>
@@ -131,12 +137,6 @@
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -34,6 +34,9 @@
     <t>Devin Vassell</t>
   </si>
   <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
@@ -46,39 +49,36 @@
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
     <t>Dereck Lively II</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
@@ -121,28 +124,25 @@
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,121 +28,124 @@
     <t>Jalen Brunson</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jared McCain</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Dalton Knecht</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
     <t>Nicolas Claxton</t>
   </si>
   <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Devin Booker</t>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Coby White</t>
   </si>
   <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -566,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -577,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -588,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +616,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +627,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +649,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -687,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,7 +704,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jared McCain</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jared McCain</t>
+    <t>P.J. Washington</t>
   </si>
   <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -82,64 +82,61 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -558,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -569,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -591,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -602,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -624,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -646,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,124 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Jared McCain</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Jared McCain</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Jared McCain</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Jared McCain</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -91,52 +91,52 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -569,7 +569,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Jared McCain</t>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -88,61 +88,64 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -712,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Devin Booker</t>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Desmond Bane</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -88,64 +88,64 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,49 +25,49 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
+    <t>Jrue Holiday</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
@@ -82,64 +82,64 @@
     <t>PG</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
+    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -528,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,7 +550,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +561,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,27 +25,27 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
@@ -67,7 +67,7 @@
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Jrue Holiday</t>
+    <t>D'Angelo Russell</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
@@ -79,48 +79,48 @@
     <t>Desmond Bane</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>LA Clippers</t>
   </si>
   <si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -536,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -569,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -591,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -602,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -646,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -657,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -668,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -712,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,12 +25,39 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
@@ -43,69 +70,66 @@
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
@@ -118,31 +142,7 @@
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,6 +25,12 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Coby White</t>
   </si>
   <si>
@@ -58,18 +64,12 @@
     <t>Jrue Holiday</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
     <t>Draymond Green</t>
   </si>
   <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -79,27 +79,33 @@
     <t>LeBron James</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
@@ -130,16 +136,10 @@
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
     <t>Coby White</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -82,64 +82,64 @@
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,121 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Dorian Finney-Smith</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Alperen Sengün</t>
   </si>
   <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>LeBron James</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -500,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -533,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -544,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -569,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -610,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -621,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +676,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,18 +698,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Kawhi Leonard</t>
   </si>
   <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
   </si>
   <si>
     <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +704,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
     <t>Coby White</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Dorian Finney-Smith</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Dorian Finney-Smith</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -79,70 +79,70 @@
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -572,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -707,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Coby White</t>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Dorian Finney-Smith</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -94,61 +94,52 @@
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -531,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +588,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,7 +599,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +621,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Amen Thompson</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -79,61 +79,61 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -533,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +544,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -698,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
     <t>Amen Thompson</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
     <t>Yves Missi</t>
   </si>
   <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -79,61 +79,61 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -533,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +544,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -698,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,40 +34,40 @@
     <t>Desmond Bane</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
   </si>
   <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Amen Thompson</t>
-  </si>
-  <si>
     <t>Yves Missi</t>
   </si>
   <si>
-    <t>Caris LeVert</t>
+    <t>Klay Thompson</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
@@ -109,31 +109,37 @@
     <t>Memphis Grizzlies</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>LA Clippers</t>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers</t>
+    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -552,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -577,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -610,7 +616,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +627,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +671,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +682,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -709,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,127 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Trayce Jackson-Davis</t>
+  </si>
+  <si>
+    <t>Gradey Dick</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +616,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +704,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,127 +25,130 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Tristan da Silva</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Trayce Jackson-Davis</t>
-  </si>
-  <si>
-    <t>Gradey Dick</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -569,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -602,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +674,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,12 +25,39 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Cole Anthony</t>
   </si>
   <si>
-    <t>Tristan da Silva</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
@@ -40,36 +67,9 @@
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
@@ -82,27 +82,54 @@
     <t>PG</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
@@ -115,31 +142,7 @@
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -542,7 +545,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -605,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -616,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -627,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -638,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -649,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -671,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -682,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -718,7 +721,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,12 +25,27 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -43,46 +58,40 @@
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
     <t>Myles Turner</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SG,SF</t>
@@ -91,24 +100,30 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
@@ -118,40 +133,25 @@
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -586,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -652,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -674,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -696,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Gradey Dick</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
+    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -575,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -586,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -597,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -652,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -663,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -674,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -718,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -28,45 +28,45 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Gradey Dick</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Coby White</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Gradey Dick</t>
-  </si>
-  <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
@@ -106,40 +106,40 @@
     <t>Toronto Raptors</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -718,7 +718,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -28,127 +28,127 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Gradey Dick</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>PG,C</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -693,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,130 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PG,C</t>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +616,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +627,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Coby White</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
+    <t>Myles Turner</t>
   </si>
   <si>
     <t>Luguentz Dort</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
@@ -79,64 +79,64 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,127 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -503,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -635,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -646,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,21 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,57 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
     <t>Scoot Henderson</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -85,64 +88,67 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +608,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -698,10 +704,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -85,61 +85,61 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -685,7 +685,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -85,61 +85,61 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -37,69 +37,69 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
@@ -112,18 +112,21 @@
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
@@ -133,22 +136,19 @@
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -608,7 +608,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -718,7 +718,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
+    <t>Jerami Grant</t>
   </si>
   <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
   </si>
   <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Alexandre Sarr</t>
+    <t>Walker Kessler</t>
   </si>
   <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -88,61 +85,52 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
+    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -506,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,6 +25,33 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
     <t>Scoot Henderson</t>
   </si>
   <si>
@@ -34,36 +61,12 @@
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Jerami Grant</t>
   </si>
   <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Myles Turner</t>
   </si>
   <si>
@@ -76,10 +79,13 @@
     <t>Kawhi Leonard</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
@@ -88,12 +94,36 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
@@ -103,31 +133,7 @@
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +591,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +698,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,67 +25,73 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
     <t>Cason Wallace</t>
   </si>
   <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>SF,PF</t>
@@ -94,55 +100,55 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -599,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -610,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -621,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -632,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -643,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -654,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,130 +25,130 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Jaylen Wells</t>
+  </si>
+  <si>
     <t>Scoot Henderson</t>
   </si>
   <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,7 +542,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,7 +663,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,58 +25,58 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Isaiah Joe</t>
+  </si>
+  <si>
+    <t>Dalano Banton</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Jaylen Wells</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
-    <t>LeBron James</t>
+    <t>Jimmy Butler</t>
   </si>
   <si>
     <t>PG</t>
@@ -88,67 +88,58 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -531,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +621,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,7 +698,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Vit Krejci</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
     <t>Scoot Henderson</t>
   </si>
   <si>
-    <t>Isaiah Joe</t>
-  </si>
-  <si>
-    <t>Dalano Banton</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Myles Turner</t>
   </si>
   <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -88,58 +88,64 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +583,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,82 +25,85 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
+    <t>Bilal Coulibaly</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Vit Krejci</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>New York Knicks</t>
@@ -109,43 +112,43 @@
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,7 +542,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -646,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -657,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -668,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -712,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Josh Okogie</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -85,61 +85,61 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,7 +608,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +619,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
     <t>Scoot Henderson</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Josh Okogie</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
@@ -79,67 +79,67 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>C</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -572,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +619,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,124 +25,115 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Josh Okogie</t>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -506,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -605,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -616,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -627,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,7 +665,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,21 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,6 +25,18 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
@@ -52,49 +64,52 @@
     <t>Scoot Henderson</t>
   </si>
   <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -125,15 +140,6 @@
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -522,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +594,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,7 +605,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
@@ -76,70 +76,70 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,127 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,9 +701,20 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
       </c>
     </row>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,49 +28,43 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
+    <t>Tyus Jones</t>
   </si>
   <si>
     <t>Brandon Ingram</t>
@@ -82,67 +76,58 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
@@ -503,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,32 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,112 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Nick Richards</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>LA Clippers</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +533,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +654,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +684,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,79 +25,109 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Nick Richards</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -106,40 +136,10 @@
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
+    <t>Miami Heat</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,48 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Max Christie</t>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Desmond Bane</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
     <t>Myles Turner</t>
   </si>
   <si>
@@ -76,67 +79,67 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -574,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -585,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -596,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -673,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -684,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +701,18 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,45 +34,45 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
     <t>Kel'el Ware</t>
   </si>
   <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
@@ -88,21 +88,21 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>LA Clippers</t>
   </si>
   <si>
@@ -115,34 +115,37 @@
     <t>Miami Heat</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -657,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +682,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,16 +25,19 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
     <t>Max Christie</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Kel'el Ware</t>
+    <t>Jimmy Butler III</t>
   </si>
   <si>
     <t>Jalen Williams</t>
@@ -52,9 +55,6 @@
     <t>Christian Braun</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -67,7 +67,7 @@
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Moussa Diabate</t>
+    <t>Bobby Portis</t>
   </si>
   <si>
     <t>Walker Kessler</t>
@@ -79,28 +79,34 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>PG</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>LA Clippers</t>
@@ -112,9 +118,6 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
@@ -142,7 +142,7 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,127 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jimmy Butler III</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Moussa Diabate</t>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
-    <t>Jimmy Butler III</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
 </sst>
 </file>
@@ -503,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +602,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +613,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -657,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -668,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -679,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -690,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,21 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,124 +25,130 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Nick Smith Jr.</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Jimmy Butler III</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jimmy Butler III</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +542,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +553,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,7 +575,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +630,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +663,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +704,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,130 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Nick Smith Jr.</t>
-  </si>
-  <si>
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Jimmy Butler III</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Jimmy Butler III</t>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
   </si>
   <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
   </si>
 </sst>
 </file>
@@ -539,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -550,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -561,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -572,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -583,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -594,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -605,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -616,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -638,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -649,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -660,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -671,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -682,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,7 +693,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -28,124 +28,124 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
     <t>Max Christie</t>
   </si>
   <si>
     <t>Jimmy Butler III</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
   </si>
   <si>
     <t>Desmond Bane</t>
   </si>
   <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -649,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -25,82 +25,115 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Scoot Henderson</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>Nicolas Claxton</t>
   </si>
   <si>
-    <t>Max Christie</t>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
   </si>
   <si>
     <t>Jimmy Butler III</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -109,43 +142,10 @@
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +561,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -693,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,127 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Kai Jones</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Jimmy Butler III</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Scoot Henderson</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
   </si>
   <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jimmy Butler III</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -547,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -558,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -569,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +621,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,40 +25,52 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Spencer Dinwiddie</t>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Matas Buzelis</t>
+  </si>
+  <si>
+    <t>Jimmy Butler III</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>Desmond Bane</t>
   </si>
   <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Miles McBride</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Kai Jones</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Jimmy Butler III</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
   </si>
   <si>
     <t>Jalen Brunson</t>
@@ -67,79 +79,70 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +536,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,7 +602,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +635,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,124 +25,130 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Matas Buzelis</t>
+  </si>
+  <si>
+    <t>Jimmy Butler III</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Matas Buzelis</t>
-  </si>
-  <si>
-    <t>Jimmy Butler III</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Miles McBride</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -555,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -566,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -577,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -588,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -599,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -610,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -676,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -687,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Oguls Otistic Team.xlsx
+++ b/yahoo/Oguls Otistic Team.xlsx
@@ -28,127 +28,127 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Jimmy Butler III</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Nicolas Claxton</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Matas Buzelis</t>
-  </si>
-  <si>
-    <t>Jimmy Butler III</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,7 +619,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
